--- a/result/interactions_download/Burkitt_lymphoma_precog_mut.xlsx
+++ b/result/interactions_download/Burkitt_lymphoma_precog_mut.xlsx
@@ -651,13 +651,13 @@
     <t xml:space="preserve">KLRB1</t>
   </si>
   <si>
+    <t xml:space="preserve">FYN</t>
+  </si>
+  <si>
     <t xml:space="preserve">from</t>
   </si>
   <si>
     <t xml:space="preserve">to</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FYN</t>
   </si>
 </sst>
 </file>
@@ -5049,6 +5049,16 @@
         <v>0</v>
       </c>
     </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>212</v>
+      </c>
+      <c r="B204"/>
+      <c r="C204"/>
+      <c r="D204"/>
+      <c r="E204"/>
+      <c r="F204"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -5065,10 +5075,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2">
@@ -5124,7 +5134,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9">
@@ -5193,7 +5203,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -5241,7 +5251,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
@@ -5521,7 +5531,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B58" t="s">
         <v>35</v>
@@ -5553,7 +5563,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B62" t="s">
         <v>39</v>
@@ -5596,7 +5606,7 @@
         <v>42</v>
       </c>
       <c r="B67" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="68">
@@ -5633,7 +5643,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B72" t="s">
         <v>48</v>
@@ -5716,7 +5726,7 @@
         <v>61</v>
       </c>
       <c r="B82" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="83">
@@ -5729,7 +5739,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B84" t="s">
         <v>64</v>
@@ -5753,7 +5763,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B87" t="s">
         <v>69</v>
@@ -5769,7 +5779,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B89" t="s">
         <v>73</v>
@@ -5801,7 +5811,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B93" t="s">
         <v>85</v>
@@ -5820,7 +5830,7 @@
         <v>91</v>
       </c>
       <c r="B95" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="96">
@@ -5836,7 +5846,7 @@
         <v>99</v>
       </c>
       <c r="B97" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="98">
@@ -5868,7 +5878,7 @@
         <v>143</v>
       </c>
       <c r="B101" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="102">

--- a/result/interactions_download/Burkitt_lymphoma_precog_mut.xlsx
+++ b/result/interactions_download/Burkitt_lymphoma_precog_mut.xlsx
@@ -36,24 +36,24 @@
     <t xml:space="preserve">CHD4</t>
   </si>
   <si>
+    <t xml:space="preserve">ORF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MTA2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FBXW7</t>
+  </si>
+  <si>
     <t xml:space="preserve">NON_ORF</t>
   </si>
   <si>
-    <t xml:space="preserve">ECT2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NONE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MTA2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FBXW7</t>
-  </si>
-  <si>
     <t xml:space="preserve">KIF20A</t>
   </si>
   <si>
@@ -84,6 +84,9 @@
     <t xml:space="preserve">MTOR</t>
   </si>
   <si>
+    <t xml:space="preserve">BOTH</t>
+  </si>
+  <si>
     <t xml:space="preserve">MYO5A</t>
   </si>
   <si>
@@ -151,9 +154,6 @@
   </si>
   <si>
     <t xml:space="preserve">GLG1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOTH</t>
   </si>
   <si>
     <t xml:space="preserve">PPP1R9A</t>
@@ -1054,7 +1054,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>-2.162</v>
@@ -1071,10 +1071,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="n">
         <v>2.033</v>
@@ -1114,7 +1114,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C7" t="n">
         <v>2.389</v>
@@ -1134,7 +1134,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C8" t="n">
         <v>-2.758</v>
@@ -1174,7 +1174,7 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C10" t="n">
         <v>1.996</v>
@@ -1194,7 +1194,7 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C11" t="n">
         <v>-2.989</v>
@@ -1214,7 +1214,7 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C12" t="n">
         <v>-2.173</v>
@@ -1234,7 +1234,7 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n">
         <v>2.028</v>
@@ -1274,7 +1274,7 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C15" t="n">
         <v>2.167</v>
@@ -1291,10 +1291,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C16" t="n">
         <v>-2.061</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
@@ -1331,10 +1331,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C18" t="n">
         <v>-3.031</v>
@@ -1351,10 +1351,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C19" t="n">
         <v>-2.196</v>
@@ -1371,10 +1371,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C20" t="n">
         <v>2.132</v>
@@ -1391,10 +1391,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C21" t="n">
         <v>2.398</v>
@@ -1411,10 +1411,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C22" t="n">
         <v>-3.348</v>
@@ -1431,10 +1431,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C23" t="n">
         <v>-3.255</v>
@@ -1451,7 +1451,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
@@ -1471,10 +1471,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C25" t="n">
         <v>2.123</v>
@@ -1491,10 +1491,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C26" t="n">
         <v>-2.387</v>
@@ -1511,10 +1511,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C27" t="n">
         <v>2.107</v>
@@ -1531,10 +1531,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C28" t="n">
         <v>-2.334</v>
@@ -1551,10 +1551,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C29" t="n">
         <v>-2.169</v>
@@ -1571,10 +1571,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C30" t="n">
         <v>2.127</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
@@ -1611,10 +1611,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C32" t="n">
         <v>-2.133</v>
@@ -1631,7 +1631,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
         <v>9</v>
@@ -1651,7 +1651,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B34" t="s">
         <v>9</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s">
         <v>9</v>
@@ -1691,7 +1691,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B36" t="s">
         <v>9</v>
@@ -1711,10 +1711,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C37" t="n">
         <v>-2.582</v>
@@ -1731,10 +1731,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="C38" t="n">
         <v>2.066</v>
@@ -1774,7 +1774,7 @@
         <v>48</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C40" t="n">
         <v>-3.051</v>
@@ -1794,7 +1794,7 @@
         <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C41" t="n">
         <v>-1.97</v>
@@ -1814,7 +1814,7 @@
         <v>50</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C42" t="n">
         <v>2.612</v>
@@ -1834,7 +1834,7 @@
         <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C43" t="n">
         <v>-2.094</v>
@@ -1854,7 +1854,7 @@
         <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C44" t="n">
         <v>-2.184</v>
@@ -1894,7 +1894,7 @@
         <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C46" t="n">
         <v>2.337</v>
@@ -1914,7 +1914,7 @@
         <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C47" t="n">
         <v>-2.474</v>
@@ -1934,7 +1934,7 @@
         <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C48" t="n">
         <v>1.995</v>
@@ -1954,7 +1954,7 @@
         <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C49" t="n">
         <v>2.155</v>
@@ -2054,7 +2054,7 @@
         <v>62</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C54" t="n">
         <v>2.2</v>
@@ -2094,7 +2094,7 @@
         <v>64</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C56" t="n">
         <v>-3.075</v>
@@ -2134,7 +2134,7 @@
         <v>66</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C58" t="n">
         <v>-2.317</v>
@@ -2154,7 +2154,7 @@
         <v>67</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C59" t="n">
         <v>2.306</v>
@@ -2174,7 +2174,7 @@
         <v>68</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C60" t="n">
         <v>-2.08</v>
@@ -2254,7 +2254,7 @@
         <v>72</v>
       </c>
       <c r="B64" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="C64" t="n">
         <v>2.019</v>
@@ -2274,7 +2274,7 @@
         <v>73</v>
       </c>
       <c r="B65" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="C65" t="n">
         <v>-2.776</v>
@@ -2294,7 +2294,7 @@
         <v>74</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C66" t="n">
         <v>-2.209</v>
@@ -2454,7 +2454,7 @@
         <v>82</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C74" t="n">
         <v>1.991</v>
@@ -2514,7 +2514,7 @@
         <v>85</v>
       </c>
       <c r="B77" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C77" t="n">
         <v>2.076</v>
@@ -2534,7 +2534,7 @@
         <v>86</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C78" t="n">
         <v>2.063</v>
@@ -2554,7 +2554,7 @@
         <v>87</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C79" t="n">
         <v>2.088</v>
@@ -2654,7 +2654,7 @@
         <v>92</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C84" t="n">
         <v>2.231</v>
@@ -2734,7 +2734,7 @@
         <v>96</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C88" t="n">
         <v>2.541</v>
@@ -2754,7 +2754,7 @@
         <v>97</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C89" t="n">
         <v>-2.096</v>
@@ -2774,7 +2774,7 @@
         <v>98</v>
       </c>
       <c r="B90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C90" t="n">
         <v>2.305</v>
@@ -2794,7 +2794,7 @@
         <v>99</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C91" t="n">
         <v>-1.97</v>
@@ -2814,7 +2814,7 @@
         <v>100</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C92" t="n">
         <v>2.162</v>
@@ -2834,7 +2834,7 @@
         <v>101</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C93" t="n">
         <v>-3.96</v>
@@ -2994,7 +2994,7 @@
         <v>109</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C101" t="n">
         <v>-2.328</v>
@@ -3014,7 +3014,7 @@
         <v>110</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C102" t="n">
         <v>-2.293</v>
@@ -3034,7 +3034,7 @@
         <v>111</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C103" t="n">
         <v>-2.039</v>
@@ -3094,7 +3094,7 @@
         <v>114</v>
       </c>
       <c r="B106" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C106" t="n">
         <v>2.213</v>
@@ -3134,7 +3134,7 @@
         <v>116</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C108" t="n">
         <v>2.818</v>
@@ -3174,7 +3174,7 @@
         <v>118</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C110" t="n">
         <v>-2.069</v>
@@ -3254,7 +3254,7 @@
         <v>122</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C114" t="n">
         <v>-2.239</v>
@@ -3294,7 +3294,7 @@
         <v>124</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C116" t="n">
         <v>-2.017</v>
@@ -3314,7 +3314,7 @@
         <v>125</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C117" t="n">
         <v>-2.194</v>
@@ -3334,7 +3334,7 @@
         <v>126</v>
       </c>
       <c r="B118" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C118" t="n">
         <v>2.377</v>
@@ -3434,7 +3434,7 @@
         <v>131</v>
       </c>
       <c r="B123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C123" t="n">
         <v>2.392</v>
@@ -3454,7 +3454,7 @@
         <v>132</v>
       </c>
       <c r="B124" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="C124" t="n">
         <v>-2.78</v>
@@ -3474,7 +3474,7 @@
         <v>133</v>
       </c>
       <c r="B125" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C125" t="n">
         <v>2.232</v>
@@ -3534,7 +3534,7 @@
         <v>136</v>
       </c>
       <c r="B128" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C128" t="n">
         <v>-2.094</v>
@@ -3594,7 +3594,7 @@
         <v>139</v>
       </c>
       <c r="B131" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C131" t="n">
         <v>2.743</v>
@@ -3674,7 +3674,7 @@
         <v>143</v>
       </c>
       <c r="B135" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C135" t="n">
         <v>2.112</v>
@@ -3694,7 +3694,7 @@
         <v>144</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C136" t="n">
         <v>-2.096</v>
@@ -3754,7 +3754,7 @@
         <v>147</v>
       </c>
       <c r="B139" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="C139" t="n">
         <v>2.157</v>
@@ -3774,7 +3774,7 @@
         <v>148</v>
       </c>
       <c r="B140" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C140" t="n">
         <v>-2.329</v>
@@ -3794,7 +3794,7 @@
         <v>149</v>
       </c>
       <c r="B141" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C141" t="n">
         <v>-1.96</v>
@@ -3914,7 +3914,7 @@
         <v>155</v>
       </c>
       <c r="B147" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="C147" t="n">
         <v>-2.723</v>
@@ -3954,7 +3954,7 @@
         <v>157</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C149" t="n">
         <v>-2.642</v>
@@ -3994,7 +3994,7 @@
         <v>159</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C151" t="n">
         <v>2.513</v>
@@ -4034,7 +4034,7 @@
         <v>161</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C153" t="n">
         <v>-1.996</v>
@@ -4054,7 +4054,7 @@
         <v>162</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C154" t="n">
         <v>2.096</v>
@@ -4074,7 +4074,7 @@
         <v>163</v>
       </c>
       <c r="B155" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C155" t="n">
         <v>2.065</v>
@@ -4094,7 +4094,7 @@
         <v>164</v>
       </c>
       <c r="B156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C156" t="n">
         <v>-2.025</v>
@@ -4114,7 +4114,7 @@
         <v>165</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C157" t="n">
         <v>-2.528</v>
@@ -4134,7 +4134,7 @@
         <v>166</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C158" t="n">
         <v>-1.983</v>
@@ -4174,7 +4174,7 @@
         <v>168</v>
       </c>
       <c r="B160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C160" t="n">
         <v>2.287</v>
@@ -4194,7 +4194,7 @@
         <v>169</v>
       </c>
       <c r="B161" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C161" t="n">
         <v>-2.051</v>
@@ -4214,7 +4214,7 @@
         <v>170</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C162" t="n">
         <v>2.138</v>
@@ -4234,7 +4234,7 @@
         <v>171</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C163" t="n">
         <v>2.126</v>
@@ -4254,7 +4254,7 @@
         <v>172</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C164" t="n">
         <v>-1.976</v>
@@ -4274,7 +4274,7 @@
         <v>173</v>
       </c>
       <c r="B165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C165" t="n">
         <v>2.351</v>
@@ -4294,7 +4294,7 @@
         <v>174</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C166" t="n">
         <v>2.064</v>
@@ -4314,7 +4314,7 @@
         <v>175</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C167" t="n">
         <v>2.294</v>
@@ -4334,7 +4334,7 @@
         <v>176</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C168" t="n">
         <v>2.097</v>
@@ -4354,7 +4354,7 @@
         <v>177</v>
       </c>
       <c r="B169" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C169" t="n">
         <v>2.064</v>
@@ -4394,7 +4394,7 @@
         <v>179</v>
       </c>
       <c r="B171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C171" t="n">
         <v>-2.925</v>
@@ -4414,7 +4414,7 @@
         <v>180</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C172" t="n">
         <v>-2.218</v>
@@ -4434,7 +4434,7 @@
         <v>181</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C173" t="n">
         <v>2.478</v>
@@ -4454,7 +4454,7 @@
         <v>182</v>
       </c>
       <c r="B174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C174" t="n">
         <v>2.023</v>
@@ -4474,7 +4474,7 @@
         <v>183</v>
       </c>
       <c r="B175" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C175" t="n">
         <v>-2.242</v>
@@ -4494,7 +4494,7 @@
         <v>184</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C176" t="n">
         <v>2.008</v>
@@ -4514,7 +4514,7 @@
         <v>185</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C177" t="n">
         <v>2.336</v>
@@ -4534,7 +4534,7 @@
         <v>186</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C178" t="n">
         <v>-4.454</v>
@@ -4554,7 +4554,7 @@
         <v>187</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C179" t="n">
         <v>-2.028</v>
@@ -4814,7 +4814,7 @@
         <v>200</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C192" t="n">
         <v>-3.017</v>
@@ -4954,7 +4954,7 @@
         <v>207</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C199" t="n">
         <v>-3.391</v>
@@ -4994,7 +4994,7 @@
         <v>209</v>
       </c>
       <c r="B201" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C201" t="n">
         <v>-2.655</v>
@@ -5110,7 +5110,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -5163,10 +5163,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -5174,7 +5174,7 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14">
@@ -5238,7 +5238,7 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22">
@@ -5262,7 +5262,7 @@
         <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25">
@@ -5275,7 +5275,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
         <v>16</v>
@@ -5299,7 +5299,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B29" t="s">
         <v>17</v>
@@ -5339,7 +5339,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B34" t="s">
         <v>19</v>
@@ -5366,7 +5366,7 @@
         <v>21</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38">
@@ -5379,7 +5379,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B39" t="s">
         <v>22</v>
@@ -5390,15 +5390,15 @@
         <v>22</v>
       </c>
       <c r="B40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42">
@@ -5406,15 +5406,15 @@
         <v>15</v>
       </c>
       <c r="B42" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44">
@@ -5422,12 +5422,12 @@
         <v>14</v>
       </c>
       <c r="B44" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B45" t="s">
         <v>6</v>
@@ -5435,7 +5435,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B46" t="s">
         <v>10</v>
@@ -5446,15 +5446,15 @@
         <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49">
@@ -5462,20 +5462,20 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B50" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B51" t="s">
         <v>10</v>
@@ -5486,7 +5486,7 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53">
@@ -5494,7 +5494,7 @@
         <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54">
@@ -5502,7 +5502,7 @@
         <v>6</v>
       </c>
       <c r="B54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55">
@@ -5510,15 +5510,15 @@
         <v>15</v>
       </c>
       <c r="B55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B56" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57">
@@ -5526,7 +5526,7 @@
         <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="58">
@@ -5534,7 +5534,7 @@
         <v>212</v>
       </c>
       <c r="B58" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="59">
@@ -5542,12 +5542,12 @@
         <v>14</v>
       </c>
       <c r="B59" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B60" t="s">
         <v>14</v>
@@ -5555,10 +5555,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B61" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62">
@@ -5566,7 +5566,7 @@
         <v>212</v>
       </c>
       <c r="B62" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63">
@@ -5574,7 +5574,7 @@
         <v>15</v>
       </c>
       <c r="B63" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64">
@@ -5582,12 +5582,12 @@
         <v>15</v>
       </c>
       <c r="B64" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B65" t="s">
         <v>15</v>
@@ -5595,7 +5595,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B66" t="s">
         <v>13</v>
@@ -5603,7 +5603,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B67" t="s">
         <v>212</v>
@@ -5611,7 +5611,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B68" t="s">
         <v>15</v>
@@ -5619,15 +5619,15 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B69" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B70" t="s">
         <v>13</v>
@@ -5686,7 +5686,7 @@
         <v>54</v>
       </c>
       <c r="B77" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="78">
@@ -5694,7 +5694,7 @@
         <v>56</v>
       </c>
       <c r="B78" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="79">
@@ -5715,7 +5715,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B81" t="s">
         <v>60</v>
@@ -5731,7 +5731,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B83" t="s">
         <v>63</v>
@@ -5755,7 +5755,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B86" t="s">
         <v>68</v>
@@ -5787,7 +5787,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B90" t="s">
         <v>76</v>
@@ -5806,7 +5806,7 @@
         <v>82</v>
       </c>
       <c r="B92" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="93">
@@ -5854,7 +5854,7 @@
         <v>121</v>
       </c>
       <c r="B98" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99">
@@ -5867,7 +5867,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B100" t="s">
         <v>141</v>
@@ -5886,7 +5886,7 @@
         <v>144</v>
       </c>
       <c r="B102" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
